--- a/outputs-GTDB-r202/f__Erysipelotrichaceae.xlsx
+++ b/outputs-GTDB-r202/f__Erysipelotrichaceae.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>g__Bulleidia</t>
+          <t>g__Bulleidia(reject)</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>g__Bulleidia</t>
+          <t>g__Bulleidia(reject)</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>g__Bulleidia</t>
+          <t>g__Bulleidia(reject)</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>g__Bulleidia</t>
+          <t>g__Bulleidia(reject)</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>g__UBA636</t>
+          <t>g__UBA636(reject)</t>
         </is>
       </c>
     </row>
